--- a/Report/check to search homepage of author.xlsx
+++ b/Report/check to search homepage of author.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="15300" windowHeight="6096"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="15300" windowHeight="6090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -256,11 +256,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -276,7 +276,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF00B050"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -292,7 +292,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -301,6 +301,22 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="163"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
@@ -351,7 +367,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -359,6 +375,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -656,18 +675,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E3" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" customWidth="1"/>
-    <col min="2" max="2" width="22.296875" customWidth="1"/>
-    <col min="3" max="3" width="35.8984375" customWidth="1"/>
-    <col min="5" max="5" width="63.296875" customWidth="1"/>
-    <col min="6" max="6" width="8.8984375" customWidth="1"/>
-    <col min="7" max="7" width="37.09765625" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="5" max="5" width="63.28515625" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1">
@@ -876,27 +895,27 @@
       <c r="C15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="7" t="s">
         <v>58</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" s="8" customFormat="1">
+      <c r="A16" s="8">
         <v>15</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -957,7 +976,7 @@
       <c r="C21" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="7" t="s">
         <v>66</v>
       </c>
       <c r="G21" s="2" t="s">
@@ -1041,7 +1060,7 @@
       <c r="C27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="7" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1089,17 +1108,17 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="4" customFormat="1">
-      <c r="A32" s="4">
+    <row r="32" spans="1:7" s="8" customFormat="1">
+      <c r="A32" s="8">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="9" t="s">
         <v>53</v>
       </c>
     </row>
@@ -1113,7 +1132,7 @@
       <c r="C33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="7" t="s">
         <v>72</v>
       </c>
       <c r="G33" s="2" t="s">
@@ -1131,20 +1150,20 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="2" customFormat="1">
-      <c r="A35" s="2">
+    <row r="35" spans="1:7" s="8" customFormat="1">
+      <c r="A35" s="8">
         <v>34</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="C35" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="G35" s="8" t="s">
         <v>75</v>
       </c>
     </row>
@@ -1228,9 +1247,14 @@
     <hyperlink ref="E12" r:id="rId3"/>
     <hyperlink ref="E16" r:id="rId4"/>
     <hyperlink ref="G11" r:id="rId5" display="http://www.cs.yale.edu/~avi"/>
+    <hyperlink ref="E33" r:id="rId6"/>
+    <hyperlink ref="E15" r:id="rId7"/>
+    <hyperlink ref="E21" r:id="rId8"/>
+    <hyperlink ref="E27" r:id="rId9"/>
+    <hyperlink ref="E32" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -1240,7 +1264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1252,7 +1276,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Report/check to search homepage of author.xlsx
+++ b/Report/check to search homepage of author.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="86">
   <si>
     <t>STT</t>
   </si>
@@ -250,6 +250,30 @@
   </si>
   <si>
     <t>Title: Amihai (Ami) Motro</t>
+  </si>
+  <si>
+    <t>Jim Diederich</t>
+  </si>
+  <si>
+    <t>Jack Milton</t>
+  </si>
+  <si>
+    <t>không có homepage</t>
+  </si>
+  <si>
+    <t>http://www.math.buffalo.edu/mad/computer-science/ellis_clarencea.html</t>
+  </si>
+  <si>
+    <t>Clarence A. Ellis</t>
+  </si>
+  <si>
+    <t>Clarence A. Ellis - Computer Scientist of the African Diaspora</t>
+  </si>
+  <si>
+    <t>Simon J. Gibbs</t>
+  </si>
+  <si>
+    <t>Chris Tomlinson</t>
   </si>
 </sst>
 </file>
@@ -673,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1237,8 +1261,71 @@
         <v>56</v>
       </c>
     </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="4">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
     <row r="42" spans="1:7">
-      <c r="C42" s="4"/>
+      <c r="A42" s="4">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="4">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G43" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="4">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="4">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="4">
+        <v>45</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1252,9 +1339,10 @@
     <hyperlink ref="E21" r:id="rId8"/>
     <hyperlink ref="E27" r:id="rId9"/>
     <hyperlink ref="E32" r:id="rId10"/>
+    <hyperlink ref="E43" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId12"/>
 </worksheet>
 </file>
 
